--- a/database/seeds/assets/users.xlsx
+++ b/database/seeds/assets/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>admin@admin.ru</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>galich</t>
+  </si>
+  <si>
+    <t>EMP688_GalichAA@orw.rzd</t>
   </si>
 </sst>
 </file>
@@ -400,64 +409,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>123456</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="E4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/database/seeds/assets/users.xlsx
+++ b/database/seeds/assets/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>EMP688_GalichAA@orw.rzd</t>
+  </si>
+  <si>
+    <t>Bagautdinov</t>
+  </si>
+  <si>
+    <t>DKRE-Bagautdinov@kbsh.rzd</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,41 +465,58 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/database/seeds/assets/users.xlsx
+++ b/database/seeds/assets/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>dkre_id</t>
   </si>
   <si>
-    <t>VanyukovVV</t>
-  </si>
-  <si>
     <t>VanyukovVV@wsr.rzd</t>
   </si>
   <si>
@@ -49,17 +46,56 @@
     <t>EMP688_GalichAA@orw.rzd</t>
   </si>
   <si>
-    <t>Bagautdinov</t>
-  </si>
-  <si>
     <t>DKRE-Bagautdinov@kbsh.rzd</t>
+  </si>
+  <si>
+    <t>dkre-ChernitskiyAS@skzd.rzd</t>
+  </si>
+  <si>
+    <t>сhernitskiy</t>
+  </si>
+  <si>
+    <t>imakarova@serw.rzd</t>
+  </si>
+  <si>
+    <t>makarova</t>
+  </si>
+  <si>
+    <t>bagautdinov</t>
+  </si>
+  <si>
+    <t>LTTaras@svrw.rzd</t>
+  </si>
+  <si>
+    <t>taras</t>
+  </si>
+  <si>
+    <t>vanyukov</t>
+  </si>
+  <si>
+    <t>SevostyanovAN@zrw.rzd</t>
+  </si>
+  <si>
+    <t>sevostyanov</t>
+  </si>
+  <si>
+    <t>dkre_ZaytsevaNN@msk.rzd</t>
+  </si>
+  <si>
+    <t>zaytseva</t>
+  </si>
+  <si>
+    <t>chernogorovyua@dkre.org.rzd</t>
+  </si>
+  <si>
+    <t>chernogorovyua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,14 +110,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,17 +130,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,18 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -434,12 +472,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -447,78 +485,177 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D7" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>123456</v>
-      </c>
-      <c r="E4">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E10" s="3">
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>